--- a/public/template_level.xlsx
+++ b/public/template_level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS_2024\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A659403F-B6A1-490F-AF1B-267F9CA37F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B414B3-B177-41D4-B4AB-27AB5FBD4804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2280" windowWidth="10340" windowHeight="9380" xr2:uid="{2D71243D-CAEC-46A7-9E00-8495E1416CE9}"/>
+    <workbookView xWindow="7660" yWindow="2230" windowWidth="10340" windowHeight="9380" xr2:uid="{2D71243D-CAEC-46A7-9E00-8495E1416CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>level_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>level_kode</t>
   </si>
@@ -409,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B88D84-CC32-42D3-8A89-6C2BCDCAD73E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,26 +419,20 @@
     <col min="3" max="3" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
